--- a/网站类目填写内容 .xlsx
+++ b/网站类目填写内容 .xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="16440" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="13740" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="房地产" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="通用框架" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -197,6 +197,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>最低起价</t>
@@ -217,6 +218,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>折扣</t>
@@ -237,6 +239,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>活动</t>
@@ -257,6 +260,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>联系电话</t>
@@ -277,6 +281,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>楼盘地址</t>
@@ -297,6 +302,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>户型面积（户型图片上传，并提供按钮供客户跳转）</t>
@@ -317,6 +323,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>楼盘概况</t>
@@ -337,6 +344,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>周边配套</t>
@@ -360,6 +368,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>均价走势</t>
@@ -395,6 +404,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>标题</t>
@@ -415,6 +425,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>求购</t>
@@ -433,6 +444,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>出售</t>
@@ -451,6 +463,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>选择）</t>
@@ -471,6 +484,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>所属小区</t>
@@ -489,6 +503,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>几层</t>
@@ -507,6 +522,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>几楼</t>
@@ -525,6 +541,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>共几层</t>
@@ -545,6 +562,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>区域</t>
@@ -563,6 +581,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>茨坪</t>
@@ -581,6 +600,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>新城区</t>
@@ -599,6 +619,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>加载一个井冈山市下辖分列</t>
@@ -628,6 +649,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>户型</t>
@@ -648,6 +670,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>总价</t>
@@ -668,6 +691,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>联系方式</t>
@@ -688,6 +712,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>客户自填信息，并提供附件照片上传</t>
@@ -711,6 +736,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>类型：（公寓</t>
@@ -729,6 +755,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>别墅</t>
@@ -747,6 +774,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>平房</t>
@@ -765,6 +793,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>普通住宅</t>
@@ -794,6 +823,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>装修程度</t>
@@ -812,6 +842,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>毛坯</t>
@@ -830,6 +861,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>简装</t>
@@ -848,6 +880,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>精装</t>
@@ -866,6 +899,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>豪装</t>
@@ -895,6 +929,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>朝向</t>
@@ -913,6 +948,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>东</t>
@@ -931,6 +967,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>南</t>
@@ -949,6 +986,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>西</t>
@@ -967,6 +1005,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>北</t>
@@ -985,6 +1024,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>东西</t>
@@ -1003,6 +1043,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>南北</t>
@@ -1021,6 +1062,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>东南</t>
@@ -1039,6 +1081,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>西南</t>
@@ -1057,6 +1100,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>东北</t>
@@ -1075,6 +1119,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>西北</t>
@@ -1095,6 +1140,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>产权</t>
@@ -1118,6 +1164,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>求租</t>
@@ -1136,6 +1183,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>出租</t>
@@ -1156,6 +1204,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>地址</t>
@@ -1176,6 +1225,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>户型（几室几厅，多少平米）</t>
@@ -1196,6 +1246,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月租金</t>
@@ -1216,6 +1267,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>结算方式</t>
@@ -1236,6 +1288,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>客户自填描述（提供照片附件上传）</t>
@@ -1259,6 +1312,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>地址临近</t>
@@ -1279,6 +1333,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>类型</t>
@@ -1299,6 +1354,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>面积</t>
@@ -1319,6 +1375,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>租金</t>
@@ -1339,6 +1396,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>客户自填描述（提供照片附件上传）</t>
@@ -1362,6 +1420,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>供求（出租、求租、转让、求购、出售）</t>
@@ -1382,6 +1441,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>所属区域</t>
@@ -1402,6 +1462,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>位置</t>
@@ -1420,6 +1481,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>临近（）位置</t>
@@ -1440,6 +1502,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>类型：仓库？厂房？车位？土地？</t>
@@ -1460,6 +1523,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>面积</t>
@@ -1480,6 +1544,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>价格</t>
@@ -1500,6 +1565,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>客户自填描述（提供照片附件上传）</t>
@@ -1523,6 +1589,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>类别：数码产品、二手家具、二手交通工具、服装鞋帽箱包、文体用品、家具日用品、艺术品、其他二手</t>
@@ -1549,6 +1616,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>转让价格</t>
@@ -1569,6 +1637,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>图片外观上传</t>
@@ -1589,6 +1658,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>客户自述</t>
@@ -1624,6 +1694,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>首次上牌时间（</t>
@@ -1642,6 +1713,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>年</t>
@@ -1671,6 +1743,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>是否定期</t>
@@ -1689,6 +1762,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>保养</t>
@@ -1709,6 +1783,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>有无重大事故</t>
@@ -1729,6 +1804,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>年检到期时间</t>
@@ -1752,6 +1828,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>商业险到期时间</t>
@@ -1772,6 +1849,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>汽车外观图上传</t>
@@ -1783,6 +1861,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（左前</t>
@@ -1801,6 +1880,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>右后</t>
@@ -1819,6 +1899,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>侧面</t>
@@ -1837,6 +1918,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>仪表台</t>
@@ -1855,6 +1937,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>内饰</t>
@@ -1873,6 +1956,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>发动机舱）</t>
@@ -1893,6 +1977,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>上传行驶证</t>
@@ -1913,6 +1998,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>行车里程数</t>
@@ -1936,6 +2022,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>标题（一句话广告）</t>
@@ -1956,6 +2043,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>补充说明</t>
@@ -1979,6 +2067,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>联系电话</t>
@@ -2002,6 +2091,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>看车地址</t>
@@ -2043,6 +2133,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>驾照招生</t>
@@ -2061,6 +2152,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>教练招生</t>
@@ -2081,6 +2173,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>驾照等级</t>
@@ -2101,6 +2194,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>班别：平日计时班</t>
@@ -2119,6 +2213,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>全周计时班</t>
@@ -2137,6 +2232,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>加急速成班</t>
@@ -2155,6 +2251,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>周末班</t>
@@ -2175,6 +2272,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>补充说明</t>
@@ -2195,6 +2293,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>上传图片</t>
@@ -2215,6 +2314,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>联系人</t>
@@ -2235,6 +2335,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>联系电话</t>
@@ -2255,6 +2356,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>学车地点</t>
@@ -2278,6 +2380,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>类别：过户、汽车年检、代办上牌、违章代办、异地验车、外迁提档</t>
@@ -2298,6 +2401,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>价格</t>
@@ -2318,6 +2422,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>服务区域</t>
@@ -2338,6 +2443,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>联系人</t>
@@ -2358,6 +2464,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>联系电话</t>
@@ -2378,6 +2485,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>详细地址</t>
@@ -2398,6 +2506,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>补充说明</t>
@@ -2418,6 +2527,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>图片上传</t>
@@ -2441,6 +2551,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>联系人</t>
@@ -2461,6 +2572,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>联系电话</t>
@@ -2481,6 +2593,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>详细地址</t>
@@ -2501,6 +2614,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>照片上传</t>
@@ -2524,6 +2638,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>车型（小轿车、面包车）</t>
@@ -2544,6 +2659,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>路线</t>
@@ -2564,6 +2680,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>补充说明</t>
@@ -2584,6 +2701,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>汽车照片外观上传</t>
@@ -2622,6 +2740,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>联系方式</t>
@@ -2642,6 +2761,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>服务范围</t>
@@ -2662,6 +2782,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>服务时间</t>
@@ -2682,6 +2803,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>补充说明（服务内容等）</t>
@@ -2705,6 +2827,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>搬家</t>
@@ -2725,6 +2848,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>保姆</t>
@@ -2743,6 +2867,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月嫂</t>
@@ -2766,6 +2891,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>家政保洁</t>
@@ -2786,6 +2912,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>疏通</t>
@@ -2809,6 +2936,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>回收</t>
@@ -2829,6 +2957,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>房屋维修</t>
@@ -2852,6 +2981,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>家电维修</t>
@@ -2872,6 +3002,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>。电脑维修</t>
@@ -2892,6 +3023,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>开换锁</t>
@@ -2912,6 +3044,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>空调维修</t>
@@ -2941,6 +3074,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>联系人</t>
@@ -2961,6 +3095,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>联系</t>
@@ -2990,6 +3125,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>上传图片</t>
@@ -3025,6 +3161,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>微信</t>
@@ -3069,6 +3206,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>选择</t>
@@ -3089,6 +3227,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>选择</t>
@@ -3109,6 +3248,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>选择</t>
@@ -3129,6 +3269,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>选择</t>
@@ -3149,6 +3290,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>选择</t>
@@ -3169,6 +3311,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>选择</t>
@@ -3189,6 +3332,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>选择</t>
@@ -3209,6 +3353,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>选择</t>
@@ -3229,6 +3374,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>选择</t>
@@ -3249,6 +3395,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>选择</t>
@@ -3269,6 +3416,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>选择</t>
@@ -3289,6 +3437,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>选择</t>
@@ -3309,6 +3458,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>选择</t>
@@ -3329,6 +3479,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>选择</t>
@@ -3349,6 +3500,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>选择</t>
@@ -3369,6 +3521,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>选择</t>
@@ -3389,6 +3542,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>选择</t>
@@ -3409,6 +3563,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>选择</t>
@@ -3429,6 +3584,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>选择</t>
@@ -3449,6 +3605,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>选择</t>
@@ -3469,6 +3626,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>选择</t>
@@ -3489,6 +3647,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>选择</t>
@@ -3509,6 +3668,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>选择</t>
@@ -3529,6 +3689,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>选择</t>
@@ -3549,6 +3710,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>选择</t>
@@ -3569,6 +3731,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>选择</t>
@@ -3589,6 +3752,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>选择</t>
@@ -3609,6 +3773,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>选择</t>
@@ -3629,6 +3794,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>选择</t>
@@ -3649,6 +3815,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>选择</t>
@@ -3669,6 +3836,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>选择</t>
@@ -3689,6 +3857,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>选择</t>
@@ -3709,6 +3878,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>选择</t>
@@ -3729,6 +3899,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>选择</t>
@@ -3749,6 +3920,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>选择</t>
@@ -3769,6 +3941,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>选择</t>
@@ -3789,6 +3962,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>选择</t>
@@ -3809,6 +3983,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>选择</t>
@@ -3829,6 +4004,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>选择</t>
@@ -3849,6 +4025,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>选择</t>
@@ -3869,6 +4046,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>选择</t>
@@ -3889,6 +4067,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>选择</t>
@@ -3909,6 +4088,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>选择</t>
@@ -3929,6 +4109,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>选择</t>
@@ -3949,6 +4130,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>选择</t>
@@ -3969,6 +4151,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>选择</t>
@@ -3989,6 +4172,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>选择</t>
@@ -4009,6 +4193,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>选择</t>
@@ -4029,6 +4214,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>选择</t>
@@ -4049,6 +4235,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>选择</t>
@@ -4069,6 +4256,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>选择</t>
@@ -4089,6 +4277,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>井冈房产</t>
@@ -4107,6 +4296,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>出售</t>
@@ -4130,6 +4320,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>小区</t>
@@ -4148,6 +4339,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>商圈</t>
@@ -4175,6 +4367,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>井冈房产</t>
@@ -4193,6 +4386,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>求购</t>
@@ -4316,6 +4510,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>小区</t>
@@ -4334,6 +4529,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>商圈</t>
@@ -4352,6 +4548,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>地址</t>
@@ -4468,8 +4665,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -4496,6 +4693,7 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -5055,7 +5253,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst/>
         </a:blip>
         <a:stretch>
@@ -5098,7 +5296,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst/>
         </a:blip>
         <a:stretch>
@@ -6366,20 +6564,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IV64"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.8984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="7.8984375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="103.59765625" style="1" customWidth="1"/>
     <col min="2" max="256" width="7.8984375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="18" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6390,7 +6588,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="15.95" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -6399,7 +6597,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="18" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -6418,7 +6616,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="18" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -6437,7 +6635,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="21" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
@@ -6448,7 +6646,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="21" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
@@ -6459,7 +6657,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="21" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -6470,7 +6668,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="21" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -6481,7 +6679,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="21" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -6492,7 +6690,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="21" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -6503,7 +6701,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="21" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
@@ -6522,7 +6720,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="21" customHeight="1">
       <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
@@ -6541,7 +6739,7 @@
       </c>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="21" customHeight="1">
       <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
@@ -6560,7 +6758,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="15.95" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -6569,7 +6767,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="18" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>19</v>
       </c>
@@ -6580,7 +6778,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="18" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="5" t="s">
@@ -6591,7 +6789,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="15.95" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -6600,7 +6798,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="18" customHeight="1">
       <c r="A18" s="4" t="s">
         <v>21</v>
       </c>
@@ -6611,7 +6809,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="21" customHeight="1">
       <c r="A19" s="5" t="s">
         <v>22</v>
       </c>
@@ -6622,7 +6820,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="21" customHeight="1">
       <c r="A20" s="5" t="s">
         <v>23</v>
       </c>
@@ -6633,7 +6831,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="21" customHeight="1">
       <c r="A21" s="5" t="s">
         <v>24</v>
       </c>
@@ -6644,7 +6842,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="21" customHeight="1">
       <c r="A22" s="5" t="s">
         <v>25</v>
       </c>
@@ -6655,7 +6853,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="21" customHeight="1">
       <c r="A23" s="5" t="s">
         <v>26</v>
       </c>
@@ -6666,7 +6864,7 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="21" customHeight="1">
       <c r="A24" s="5" t="s">
         <v>27</v>
       </c>
@@ -6677,7 +6875,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="21" customHeight="1">
       <c r="A25" s="5" t="s">
         <v>28</v>
       </c>
@@ -6688,7 +6886,7 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="21" customHeight="1">
       <c r="A26" s="5" t="s">
         <v>29</v>
       </c>
@@ -6699,7 +6897,7 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="18" customHeight="1">
       <c r="A27" s="4" t="s">
         <v>30</v>
       </c>
@@ -6710,7 +6908,7 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="21" customHeight="1">
       <c r="A28" s="5" t="s">
         <v>31</v>
       </c>
@@ -6721,7 +6919,7 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="21" customHeight="1">
       <c r="A29" s="5" t="s">
         <v>32</v>
       </c>
@@ -6732,7 +6930,7 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="21" customHeight="1">
       <c r="A30" s="5" t="s">
         <v>33</v>
       </c>
@@ -6743,7 +6941,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="21" customHeight="1">
       <c r="A31" s="5" t="s">
         <v>34</v>
       </c>
@@ -6754,7 +6952,7 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="15.95" customHeight="1">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -6763,7 +6961,7 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="15.95" customHeight="1">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -6772,7 +6970,7 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="18" customHeight="1">
       <c r="A34" s="4" t="s">
         <v>35</v>
       </c>
@@ -6783,7 +6981,7 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="21" customHeight="1">
       <c r="A35" s="5" t="s">
         <v>22</v>
       </c>
@@ -6794,7 +6992,7 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="21" customHeight="1">
       <c r="A36" s="5" t="s">
         <v>36</v>
       </c>
@@ -6805,7 +7003,7 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="21" customHeight="1">
       <c r="A37" s="5" t="s">
         <v>37</v>
       </c>
@@ -6816,7 +7014,7 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="21" customHeight="1">
       <c r="A38" s="5" t="s">
         <v>38</v>
       </c>
@@ -6827,7 +7025,7 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="21" customHeight="1">
       <c r="A39" s="5" t="s">
         <v>39</v>
       </c>
@@ -6838,7 +7036,7 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="21" customHeight="1">
       <c r="A40" s="5" t="s">
         <v>40</v>
       </c>
@@ -6849,7 +7047,7 @@
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="21" customHeight="1">
       <c r="A41" s="5" t="s">
         <v>28</v>
       </c>
@@ -6860,7 +7058,7 @@
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
     </row>
-    <row r="42" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" ht="21" customHeight="1">
       <c r="A42" s="5" t="s">
         <v>41</v>
       </c>
@@ -6871,7 +7069,7 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="15.95" customHeight="1">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -6880,7 +7078,7 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="15.95" customHeight="1">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -6889,7 +7087,7 @@
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
     </row>
-    <row r="45" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" ht="18" customHeight="1">
       <c r="A45" s="4" t="s">
         <v>42</v>
       </c>
@@ -6900,7 +7098,7 @@
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="21" customHeight="1">
       <c r="A46" s="5" t="s">
         <v>22</v>
       </c>
@@ -6911,7 +7109,7 @@
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
     </row>
-    <row r="47" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" ht="21" customHeight="1">
       <c r="A47" s="5" t="s">
         <v>36</v>
       </c>
@@ -6922,7 +7120,7 @@
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" ht="21" customHeight="1">
       <c r="A48" s="5" t="s">
         <v>43</v>
       </c>
@@ -6933,7 +7131,7 @@
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" ht="21" customHeight="1">
       <c r="A49" s="5" t="s">
         <v>44</v>
       </c>
@@ -6944,7 +7142,7 @@
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" ht="21" customHeight="1">
       <c r="A50" s="5" t="s">
         <v>45</v>
       </c>
@@ -6955,7 +7153,7 @@
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
     </row>
-    <row r="51" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" ht="21" customHeight="1">
       <c r="A51" s="5" t="s">
         <v>46</v>
       </c>
@@ -6966,7 +7164,7 @@
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" ht="21" customHeight="1">
       <c r="A52" s="5" t="s">
         <v>28</v>
       </c>
@@ -6977,7 +7175,7 @@
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
     </row>
-    <row r="53" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" ht="21" customHeight="1">
       <c r="A53" s="5" t="s">
         <v>47</v>
       </c>
@@ -6988,7 +7186,7 @@
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" ht="15.95" customHeight="1">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -6997,7 +7195,7 @@
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
     </row>
-    <row r="55" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" ht="15.95" customHeight="1">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -7006,7 +7204,7 @@
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
     </row>
-    <row r="56" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" ht="18" customHeight="1">
       <c r="A56" s="4" t="s">
         <v>48</v>
       </c>
@@ -7017,7 +7215,7 @@
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
     </row>
-    <row r="57" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" ht="21" customHeight="1">
       <c r="A57" s="5" t="s">
         <v>22</v>
       </c>
@@ -7028,7 +7226,7 @@
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
     </row>
-    <row r="58" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" ht="21" customHeight="1">
       <c r="A58" s="5" t="s">
         <v>49</v>
       </c>
@@ -7039,7 +7237,7 @@
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
     </row>
-    <row r="59" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" ht="21" customHeight="1">
       <c r="A59" s="5" t="s">
         <v>50</v>
       </c>
@@ -7050,7 +7248,7 @@
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
     </row>
-    <row r="60" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" ht="21" customHeight="1">
       <c r="A60" s="5" t="s">
         <v>51</v>
       </c>
@@ -7061,7 +7259,7 @@
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
     </row>
-    <row r="61" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" ht="21" customHeight="1">
       <c r="A61" s="5" t="s">
         <v>52</v>
       </c>
@@ -7072,7 +7270,7 @@
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
     </row>
-    <row r="62" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" ht="21" customHeight="1">
       <c r="A62" s="5" t="s">
         <v>53</v>
       </c>
@@ -7083,7 +7281,7 @@
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
     </row>
-    <row r="63" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" ht="21" customHeight="1">
       <c r="A63" s="5" t="s">
         <v>54</v>
       </c>
@@ -7094,7 +7292,7 @@
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
     </row>
-    <row r="64" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" ht="21" customHeight="1">
       <c r="A64" s="5" t="s">
         <v>55</v>
       </c>
@@ -7116,80 +7314,80 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IV10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.8984375" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="7.8984375" defaultRowHeight="14.25" customHeight="1"/>
   <cols>
     <col min="1" max="256" width="7.8984375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="15.95" customHeight="1">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="15.95" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="15.95" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="15.95" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="15.95" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="15.95" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="15.95" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="15.95" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="15.95" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="15.95" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -7207,18 +7405,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IV19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.8984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="7.8984375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="103.59765625" style="8" customWidth="1"/>
     <col min="2" max="256" width="7.8984375" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="18" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>56</v>
       </c>
@@ -7228,7 +7426,7 @@
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
     </row>
-    <row r="2" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="21" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>57</v>
       </c>
@@ -7238,7 +7436,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="18" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>58</v>
       </c>
@@ -7248,7 +7446,7 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="18" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>59</v>
       </c>
@@ -7258,7 +7456,7 @@
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="21" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>60</v>
       </c>
@@ -7268,7 +7466,7 @@
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="21" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>61</v>
       </c>
@@ -7278,7 +7476,7 @@
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="21" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>62</v>
       </c>
@@ -7288,7 +7486,7 @@
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="18" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -7296,7 +7494,7 @@
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="18" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>63</v>
       </c>
@@ -7306,7 +7504,7 @@
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="18" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -7314,7 +7512,7 @@
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="18" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -7322,7 +7520,7 @@
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="18" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -7330,7 +7528,7 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="18" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -7338,7 +7536,7 @@
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="18" customHeight="1">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -7346,7 +7544,7 @@
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="18" customHeight="1">
       <c r="A15" s="9"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -7354,7 +7552,7 @@
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="18" customHeight="1">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -7362,7 +7560,7 @@
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="18" customHeight="1">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -7370,7 +7568,7 @@
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="18" customHeight="1">
       <c r="A18" s="9"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -7378,7 +7576,7 @@
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="18" customHeight="1">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -7397,18 +7595,18 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IV126"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.8984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="7.8984375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="103.59765625" style="10" customWidth="1"/>
     <col min="2" max="256" width="7.8984375" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="18" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>64</v>
       </c>
@@ -7418,7 +7616,7 @@
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
     </row>
-    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="18" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>65</v>
       </c>
@@ -7428,7 +7626,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="18" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>66</v>
       </c>
@@ -7438,7 +7636,7 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="18" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>67</v>
       </c>
@@ -7448,7 +7646,7 @@
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="21" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>68</v>
       </c>
@@ -7458,7 +7656,7 @@
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="21" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>69</v>
       </c>
@@ -7468,7 +7666,7 @@
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="21" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>70</v>
       </c>
@@ -7478,7 +7676,7 @@
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="21" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>71</v>
       </c>
@@ -7488,7 +7686,7 @@
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="18" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>72</v>
       </c>
@@ -7498,7 +7696,7 @@
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="21" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>73</v>
       </c>
@@ -7508,7 +7706,7 @@
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="21" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>74</v>
       </c>
@@ -7518,7 +7716,7 @@
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="21" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>75</v>
       </c>
@@ -7528,7 +7726,7 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="21" customHeight="1">
       <c r="A13" s="5" t="s">
         <v>76</v>
       </c>
@@ -7538,7 +7736,7 @@
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="21" customHeight="1">
       <c r="A14" s="5" t="s">
         <v>77</v>
       </c>
@@ -7548,7 +7746,7 @@
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="18" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>78</v>
       </c>
@@ -7558,7 +7756,7 @@
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="21" customHeight="1">
       <c r="A16" s="5" t="s">
         <v>79</v>
       </c>
@@ -7568,7 +7766,7 @@
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="21" customHeight="1">
       <c r="A17" s="5" t="s">
         <v>80</v>
       </c>
@@ -7578,7 +7776,7 @@
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="18" customHeight="1">
       <c r="A18" s="4" t="s">
         <v>81</v>
       </c>
@@ -7588,7 +7786,7 @@
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="21" customHeight="1">
       <c r="A19" s="5" t="s">
         <v>82</v>
       </c>
@@ -7598,7 +7796,7 @@
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="18" customHeight="1">
       <c r="A20" s="5" t="s">
         <v>83</v>
       </c>
@@ -7608,7 +7806,7 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="21" customHeight="1">
       <c r="A21" s="5" t="s">
         <v>84</v>
       </c>
@@ -7618,7 +7816,7 @@
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="18" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -7626,7 +7824,7 @@
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="18" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -7634,7 +7832,7 @@
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="18" customHeight="1">
       <c r="A24" s="4" t="s">
         <v>85</v>
       </c>
@@ -7644,7 +7842,7 @@
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="18" customHeight="1">
       <c r="A25" s="4" t="s">
         <v>86</v>
       </c>
@@ -7654,7 +7852,7 @@
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="18" customHeight="1">
       <c r="A26" s="4" t="s">
         <v>87</v>
       </c>
@@ -7664,7 +7862,7 @@
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="18" customHeight="1">
       <c r="A27" s="4" t="s">
         <v>88</v>
       </c>
@@ -7674,7 +7872,7 @@
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="18" customHeight="1">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -7682,7 +7880,7 @@
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="18" customHeight="1">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -7690,7 +7888,7 @@
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="18" customHeight="1">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -7698,7 +7896,7 @@
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="18" customHeight="1">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -7706,7 +7904,7 @@
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
-    <row r="32" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="18" customHeight="1">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -7714,7 +7912,7 @@
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
     </row>
-    <row r="33" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="18" customHeight="1">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -7722,7 +7920,7 @@
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
     </row>
-    <row r="34" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="18" customHeight="1">
       <c r="A34" s="9"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -7730,7 +7928,7 @@
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
     </row>
-    <row r="35" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="18" customHeight="1">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -7738,7 +7936,7 @@
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
     </row>
-    <row r="36" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="18" customHeight="1">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -7746,7 +7944,7 @@
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
     </row>
-    <row r="37" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="18" customHeight="1">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -7754,7 +7952,7 @@
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
     </row>
-    <row r="38" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="18" customHeight="1">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -7762,7 +7960,7 @@
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
     </row>
-    <row r="39" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="18" customHeight="1">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -7770,7 +7968,7 @@
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
     </row>
-    <row r="40" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" ht="18" customHeight="1">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -7778,7 +7976,7 @@
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
     </row>
-    <row r="41" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="18" customHeight="1">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -7786,7 +7984,7 @@
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
     </row>
-    <row r="42" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="18" customHeight="1">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -7794,7 +7992,7 @@
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
     </row>
-    <row r="43" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" ht="18" customHeight="1">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -7802,7 +8000,7 @@
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
     </row>
-    <row r="44" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" ht="18" customHeight="1">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
@@ -7810,7 +8008,7 @@
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
     </row>
-    <row r="45" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="18" customHeight="1">
       <c r="A45" s="9"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -7818,7 +8016,7 @@
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
     </row>
-    <row r="46" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" ht="18" customHeight="1">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
@@ -7826,7 +8024,7 @@
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
     </row>
-    <row r="47" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" ht="18" customHeight="1">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
@@ -7834,7 +8032,7 @@
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
     </row>
-    <row r="48" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" ht="18" customHeight="1">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
@@ -7842,7 +8040,7 @@
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
     </row>
-    <row r="49" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" ht="18" customHeight="1">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -7850,7 +8048,7 @@
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
     </row>
-    <row r="50" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" ht="18" customHeight="1">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
@@ -7858,7 +8056,7 @@
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
     </row>
-    <row r="51" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" ht="18" customHeight="1">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -7866,7 +8064,7 @@
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
     </row>
-    <row r="52" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" ht="18" customHeight="1">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
@@ -7874,7 +8072,7 @@
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
     </row>
-    <row r="53" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="18" customHeight="1">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
@@ -7882,7 +8080,7 @@
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
     </row>
-    <row r="54" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" ht="18" customHeight="1">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -7890,7 +8088,7 @@
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
     </row>
-    <row r="55" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" ht="18" customHeight="1">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -7898,7 +8096,7 @@
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
     </row>
-    <row r="56" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" ht="18" customHeight="1">
       <c r="A56" s="9"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -7906,7 +8104,7 @@
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
     </row>
-    <row r="57" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" ht="18" customHeight="1">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
@@ -7914,7 +8112,7 @@
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
     </row>
-    <row r="58" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" ht="18" customHeight="1">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
@@ -7922,7 +8120,7 @@
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
     </row>
-    <row r="59" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" ht="18" customHeight="1">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
@@ -7930,7 +8128,7 @@
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
     </row>
-    <row r="60" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" ht="18" customHeight="1">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
@@ -7938,7 +8136,7 @@
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
     </row>
-    <row r="61" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" ht="18" customHeight="1">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
@@ -7946,7 +8144,7 @@
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
     </row>
-    <row r="62" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" ht="18" customHeight="1">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
@@ -7954,7 +8152,7 @@
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
     </row>
-    <row r="63" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" ht="18" customHeight="1">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
@@ -7962,7 +8160,7 @@
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
     </row>
-    <row r="64" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" ht="18" customHeight="1">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
@@ -7970,7 +8168,7 @@
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
     </row>
-    <row r="65" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" ht="15.95" customHeight="1">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -7978,7 +8176,7 @@
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
     </row>
-    <row r="66" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" ht="15.95" customHeight="1">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -7986,7 +8184,7 @@
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
     </row>
-    <row r="67" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" ht="15.95" customHeight="1">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -7994,7 +8192,7 @@
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
     </row>
-    <row r="68" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" ht="18" customHeight="1">
       <c r="A68" s="4" t="s">
         <v>89</v>
       </c>
@@ -8004,7 +8202,7 @@
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
     </row>
-    <row r="69" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" ht="15.95" customHeight="1">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -8012,7 +8210,7 @@
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
     </row>
-    <row r="70" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" ht="15.95" customHeight="1">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -8020,7 +8218,7 @@
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
     </row>
-    <row r="71" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" ht="18" customHeight="1">
       <c r="A71" s="2" t="s">
         <v>90</v>
       </c>
@@ -8030,7 +8228,7 @@
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
     </row>
-    <row r="72" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" ht="18" customHeight="1">
       <c r="A72" s="4" t="s">
         <v>91</v>
       </c>
@@ -8040,7 +8238,7 @@
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
     </row>
-    <row r="73" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" ht="21" customHeight="1">
       <c r="A73" s="5" t="s">
         <v>22</v>
       </c>
@@ -8050,7 +8248,7 @@
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
     </row>
-    <row r="74" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" ht="21" customHeight="1">
       <c r="A74" s="5" t="s">
         <v>92</v>
       </c>
@@ -8060,7 +8258,7 @@
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
     </row>
-    <row r="75" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" ht="21" customHeight="1">
       <c r="A75" s="5" t="s">
         <v>93</v>
       </c>
@@ -8070,7 +8268,7 @@
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
     </row>
-    <row r="76" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" ht="21" customHeight="1">
       <c r="A76" s="5" t="s">
         <v>94</v>
       </c>
@@ -8080,7 +8278,7 @@
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
     </row>
-    <row r="77" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" ht="21" customHeight="1">
       <c r="A77" s="5" t="s">
         <v>95</v>
       </c>
@@ -8090,7 +8288,7 @@
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
     </row>
-    <row r="78" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" ht="21" customHeight="1">
       <c r="A78" s="5" t="s">
         <v>96</v>
       </c>
@@ -8100,7 +8298,7 @@
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
     </row>
-    <row r="79" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" ht="21" customHeight="1">
       <c r="A79" s="5" t="s">
         <v>97</v>
       </c>
@@ -8110,7 +8308,7 @@
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
     </row>
-    <row r="80" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" ht="21" customHeight="1">
       <c r="A80" s="5" t="s">
         <v>98</v>
       </c>
@@ -8120,7 +8318,7 @@
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
     </row>
-    <row r="81" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" ht="21" customHeight="1">
       <c r="A81" s="5" t="s">
         <v>99</v>
       </c>
@@ -8130,7 +8328,7 @@
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
     </row>
-    <row r="82" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" ht="15.95" customHeight="1">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -8138,7 +8336,7 @@
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
     </row>
-    <row r="83" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" ht="18" customHeight="1">
       <c r="A83" s="4" t="s">
         <v>100</v>
       </c>
@@ -8148,7 +8346,7 @@
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
     </row>
-    <row r="84" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" ht="21" customHeight="1">
       <c r="A84" s="5" t="s">
         <v>22</v>
       </c>
@@ -8158,7 +8356,7 @@
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
     </row>
-    <row r="85" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" ht="21" customHeight="1">
       <c r="A85" s="5" t="s">
         <v>101</v>
       </c>
@@ -8168,7 +8366,7 @@
       <c r="E85" s="3"/>
       <c r="F85" s="3"/>
     </row>
-    <row r="86" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" ht="21" customHeight="1">
       <c r="A86" s="5" t="s">
         <v>102</v>
       </c>
@@ -8178,7 +8376,7 @@
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
     </row>
-    <row r="87" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" ht="21" customHeight="1">
       <c r="A87" s="5" t="s">
         <v>103</v>
       </c>
@@ -8188,7 +8386,7 @@
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
     </row>
-    <row r="88" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" ht="21" customHeight="1">
       <c r="A88" s="5" t="s">
         <v>104</v>
       </c>
@@ -8198,7 +8396,7 @@
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
     </row>
-    <row r="89" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" ht="21" customHeight="1">
       <c r="A89" s="5" t="s">
         <v>105</v>
       </c>
@@ -8208,7 +8406,7 @@
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
     </row>
-    <row r="90" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" ht="21" customHeight="1">
       <c r="A90" s="5" t="s">
         <v>106</v>
       </c>
@@ -8218,7 +8416,7 @@
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
     </row>
-    <row r="91" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" ht="21" customHeight="1">
       <c r="A91" s="5" t="s">
         <v>107</v>
       </c>
@@ -8228,7 +8426,7 @@
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
     </row>
-    <row r="92" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" ht="21" customHeight="1">
       <c r="A92" s="5" t="s">
         <v>108</v>
       </c>
@@ -8238,7 +8436,7 @@
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
     </row>
-    <row r="93" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" ht="15.95" customHeight="1">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -8246,7 +8444,7 @@
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
     </row>
-    <row r="94" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" ht="18" customHeight="1">
       <c r="A94" s="4" t="s">
         <v>109</v>
       </c>
@@ -8256,7 +8454,7 @@
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
     </row>
-    <row r="95" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" ht="21" customHeight="1">
       <c r="A95" s="5" t="s">
         <v>22</v>
       </c>
@@ -8266,7 +8464,7 @@
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
     </row>
-    <row r="96" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" ht="21" customHeight="1">
       <c r="A96" s="5" t="s">
         <v>110</v>
       </c>
@@ -8276,7 +8474,7 @@
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
     </row>
-    <row r="97" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" ht="21" customHeight="1">
       <c r="A97" s="5" t="s">
         <v>111</v>
       </c>
@@ -8286,7 +8484,7 @@
       <c r="E97" s="3"/>
       <c r="F97" s="3"/>
     </row>
-    <row r="98" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" ht="21" customHeight="1">
       <c r="A98" s="5" t="s">
         <v>112</v>
       </c>
@@ -8296,7 +8494,7 @@
       <c r="E98" s="3"/>
       <c r="F98" s="3"/>
     </row>
-    <row r="99" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" ht="21" customHeight="1">
       <c r="A99" s="5" t="s">
         <v>95</v>
       </c>
@@ -8306,7 +8504,7 @@
       <c r="E99" s="3"/>
       <c r="F99" s="3"/>
     </row>
-    <row r="100" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" ht="21" customHeight="1">
       <c r="A100" s="5" t="s">
         <v>113</v>
       </c>
@@ -8316,7 +8514,7 @@
       <c r="E100" s="3"/>
       <c r="F100" s="3"/>
     </row>
-    <row r="101" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" ht="15.95" customHeight="1">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -8324,7 +8522,7 @@
       <c r="E101" s="3"/>
       <c r="F101" s="3"/>
     </row>
-    <row r="102" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" ht="18" customHeight="1">
       <c r="A102" s="4" t="s">
         <v>114</v>
       </c>
@@ -8334,7 +8532,7 @@
       <c r="E102" s="3"/>
       <c r="F102" s="3"/>
     </row>
-    <row r="103" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" ht="21" customHeight="1">
       <c r="A103" s="5" t="s">
         <v>22</v>
       </c>
@@ -8344,7 +8542,7 @@
       <c r="E103" s="3"/>
       <c r="F103" s="3"/>
     </row>
-    <row r="104" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" ht="21" customHeight="1">
       <c r="A104" s="5" t="s">
         <v>110</v>
       </c>
@@ -8354,7 +8552,7 @@
       <c r="E104" s="3"/>
       <c r="F104" s="3"/>
     </row>
-    <row r="105" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" ht="21" customHeight="1">
       <c r="A105" s="5" t="s">
         <v>111</v>
       </c>
@@ -8364,7 +8562,7 @@
       <c r="E105" s="3"/>
       <c r="F105" s="3"/>
     </row>
-    <row r="106" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" ht="21" customHeight="1">
       <c r="A106" s="5" t="s">
         <v>115</v>
       </c>
@@ -8374,7 +8572,7 @@
       <c r="E106" s="3"/>
       <c r="F106" s="3"/>
     </row>
-    <row r="107" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" ht="21" customHeight="1">
       <c r="A107" s="5" t="s">
         <v>116</v>
       </c>
@@ -8384,7 +8582,7 @@
       <c r="E107" s="3"/>
       <c r="F107" s="3"/>
     </row>
-    <row r="108" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" ht="21" customHeight="1">
       <c r="A108" s="5" t="s">
         <v>117</v>
       </c>
@@ -8394,7 +8592,7 @@
       <c r="E108" s="3"/>
       <c r="F108" s="3"/>
     </row>
-    <row r="109" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" ht="21" customHeight="1">
       <c r="A109" s="5" t="s">
         <v>118</v>
       </c>
@@ -8404,7 +8602,7 @@
       <c r="E109" s="3"/>
       <c r="F109" s="3"/>
     </row>
-    <row r="110" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" ht="15.95" customHeight="1">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -8412,7 +8610,7 @@
       <c r="E110" s="3"/>
       <c r="F110" s="3"/>
     </row>
-    <row r="111" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" ht="18" customHeight="1">
       <c r="A111" s="4" t="s">
         <v>119</v>
       </c>
@@ -8422,7 +8620,7 @@
       <c r="E111" s="6"/>
       <c r="F111" s="6"/>
     </row>
-    <row r="112" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" ht="21" customHeight="1">
       <c r="A112" s="5" t="s">
         <v>22</v>
       </c>
@@ -8432,7 +8630,7 @@
       <c r="E112" s="6"/>
       <c r="F112" s="6"/>
     </row>
-    <row r="113" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" ht="21" customHeight="1">
       <c r="A113" s="5" t="s">
         <v>110</v>
       </c>
@@ -8442,7 +8640,7 @@
       <c r="E113" s="6"/>
       <c r="F113" s="6"/>
     </row>
-    <row r="114" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" ht="21" customHeight="1">
       <c r="A114" s="5" t="s">
         <v>111</v>
       </c>
@@ -8452,7 +8650,7 @@
       <c r="E114" s="6"/>
       <c r="F114" s="6"/>
     </row>
-    <row r="115" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" ht="21" customHeight="1">
       <c r="A115" s="5" t="s">
         <v>112</v>
       </c>
@@ -8462,7 +8660,7 @@
       <c r="E115" s="6"/>
       <c r="F115" s="6"/>
     </row>
-    <row r="116" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" ht="21" customHeight="1">
       <c r="A116" s="5" t="s">
         <v>95</v>
       </c>
@@ -8472,7 +8670,7 @@
       <c r="E116" s="6"/>
       <c r="F116" s="6"/>
     </row>
-    <row r="117" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" ht="21" customHeight="1">
       <c r="A117" s="5" t="s">
         <v>113</v>
       </c>
@@ -8482,7 +8680,7 @@
       <c r="E117" s="6"/>
       <c r="F117" s="6"/>
     </row>
-    <row r="118" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" ht="15.95" customHeight="1">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -8490,7 +8688,7 @@
       <c r="E118" s="3"/>
       <c r="F118" s="3"/>
     </row>
-    <row r="119" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" ht="15.95" customHeight="1">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -8498,7 +8696,7 @@
       <c r="E119" s="3"/>
       <c r="F119" s="3"/>
     </row>
-    <row r="120" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" ht="18" customHeight="1">
       <c r="A120" s="4" t="s">
         <v>120</v>
       </c>
@@ -8508,7 +8706,7 @@
       <c r="E120" s="6"/>
       <c r="F120" s="6"/>
     </row>
-    <row r="121" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" ht="21" customHeight="1">
       <c r="A121" s="5" t="s">
         <v>22</v>
       </c>
@@ -8518,7 +8716,7 @@
       <c r="E121" s="6"/>
       <c r="F121" s="6"/>
     </row>
-    <row r="122" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" ht="21" customHeight="1">
       <c r="A122" s="5" t="s">
         <v>110</v>
       </c>
@@ -8528,7 +8726,7 @@
       <c r="E122" s="6"/>
       <c r="F122" s="6"/>
     </row>
-    <row r="123" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" ht="21" customHeight="1">
       <c r="A123" s="5" t="s">
         <v>111</v>
       </c>
@@ -8538,7 +8736,7 @@
       <c r="E123" s="6"/>
       <c r="F123" s="6"/>
     </row>
-    <row r="124" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" ht="21" customHeight="1">
       <c r="A124" s="5" t="s">
         <v>112</v>
       </c>
@@ -8548,7 +8746,7 @@
       <c r="E124" s="6"/>
       <c r="F124" s="6"/>
     </row>
-    <row r="125" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" ht="21" customHeight="1">
       <c r="A125" s="5" t="s">
         <v>95</v>
       </c>
@@ -8558,7 +8756,7 @@
       <c r="E125" s="6"/>
       <c r="F125" s="6"/>
     </row>
-    <row r="126" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" ht="21" customHeight="1">
       <c r="A126" s="5" t="s">
         <v>113</v>
       </c>
@@ -8580,18 +8778,18 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IV34"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.8984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="7.8984375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="103.59765625" style="11" customWidth="1"/>
     <col min="2" max="256" width="7.8984375" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="18" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>121</v>
       </c>
@@ -8601,7 +8799,7 @@
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
     </row>
-    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="18" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>122</v>
       </c>
@@ -8611,7 +8809,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="18" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>123</v>
       </c>
@@ -8621,7 +8819,7 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="18" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>124</v>
       </c>
@@ -8631,7 +8829,7 @@
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="21" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>125</v>
       </c>
@@ -8641,7 +8839,7 @@
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="21" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>126</v>
       </c>
@@ -8651,7 +8849,7 @@
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="21" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>127</v>
       </c>
@@ -8661,7 +8859,7 @@
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="18" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -8669,7 +8867,7 @@
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="21" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>128</v>
       </c>
@@ -8679,7 +8877,7 @@
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="18" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -8687,7 +8885,7 @@
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="18" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>129</v>
       </c>
@@ -8697,7 +8895,7 @@
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="21" customHeight="1">
       <c r="A12" s="5" t="s">
         <v>130</v>
       </c>
@@ -8707,7 +8905,7 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="21" customHeight="1">
       <c r="A13" s="5" t="s">
         <v>131</v>
       </c>
@@ -8717,7 +8915,7 @@
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="18" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>132</v>
       </c>
@@ -8727,7 +8925,7 @@
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="21" customHeight="1">
       <c r="A15" s="5" t="s">
         <v>133</v>
       </c>
@@ -8737,7 +8935,7 @@
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="21" customHeight="1">
       <c r="A16" s="5" t="s">
         <v>134</v>
       </c>
@@ -8747,7 +8945,7 @@
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="18" customHeight="1">
       <c r="A17" s="4" t="s">
         <v>135</v>
       </c>
@@ -8757,7 +8955,7 @@
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="21" customHeight="1">
       <c r="A18" s="5" t="s">
         <v>136</v>
       </c>
@@ -8767,7 +8965,7 @@
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="21" customHeight="1">
       <c r="A19" s="5" t="s">
         <v>137</v>
       </c>
@@ -8777,7 +8975,7 @@
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="18" customHeight="1">
       <c r="A20" s="4" t="s">
         <v>138</v>
       </c>
@@ -8787,7 +8985,7 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="21" customHeight="1">
       <c r="A21" s="5" t="s">
         <v>139</v>
       </c>
@@ -8797,7 +8995,7 @@
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="21" customHeight="1">
       <c r="A22" s="5" t="s">
         <v>140</v>
       </c>
@@ -8807,7 +9005,7 @@
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="21" customHeight="1">
       <c r="A23" s="5" t="s">
         <v>141</v>
       </c>
@@ -8817,7 +9015,7 @@
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="21" customHeight="1">
       <c r="A24" s="5" t="s">
         <v>142</v>
       </c>
@@ -8827,7 +9025,7 @@
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="18" customHeight="1">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -8835,7 +9033,7 @@
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="18" customHeight="1">
       <c r="A26" s="9"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -8843,7 +9041,7 @@
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="18" customHeight="1">
       <c r="A27" s="9"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -8851,7 +9049,7 @@
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="18" customHeight="1">
       <c r="A28" s="9"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -8859,7 +9057,7 @@
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="18" customHeight="1">
       <c r="A29" s="9"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -8867,7 +9065,7 @@
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="18" customHeight="1">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -8875,7 +9073,7 @@
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="18" customHeight="1">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -8883,7 +9081,7 @@
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
-    <row r="32" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="18" customHeight="1">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -8891,7 +9089,7 @@
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
     </row>
-    <row r="33" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="18" customHeight="1">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -8899,7 +9097,7 @@
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
     </row>
-    <row r="34" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="18" customHeight="1">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -8918,18 +9116,18 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IV18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.8984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="7.8984375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="103.59765625" style="12" customWidth="1"/>
     <col min="2" max="256" width="7.8984375" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="18" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>143</v>
       </c>
@@ -8939,7 +9137,7 @@
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
     </row>
-    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="18" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>123</v>
       </c>
@@ -8949,7 +9147,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="18" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>144</v>
       </c>
@@ -8959,7 +9157,7 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="18" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>145</v>
       </c>
@@ -8969,7 +9167,7 @@
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="21" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>146</v>
       </c>
@@ -8979,7 +9177,7 @@
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="21" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
@@ -8989,7 +9187,7 @@
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="21" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>147</v>
       </c>
@@ -8999,7 +9197,7 @@
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="21" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>148</v>
       </c>
@@ -9009,7 +9207,7 @@
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="18" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -9017,7 +9215,7 @@
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="18" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -9025,7 +9223,7 @@
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="18" customHeight="1">
       <c r="A11" s="9"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -9033,7 +9231,7 @@
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="18" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -9041,7 +9239,7 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="18" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -9049,7 +9247,7 @@
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="18" customHeight="1">
       <c r="A14" s="9"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -9057,7 +9255,7 @@
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="18" customHeight="1">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -9065,7 +9263,7 @@
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="18" customHeight="1">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -9073,7 +9271,7 @@
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="18" customHeight="1">
       <c r="A17" s="9"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -9081,7 +9279,7 @@
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="18" customHeight="1">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -9100,14 +9298,15 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IX30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.8984375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="7.8984375" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="13.59765625" style="13" customWidth="1"/>
     <col min="2" max="3" width="13.3984375" style="13" customWidth="1"/>
@@ -9118,7 +9317,7 @@
     <col min="47" max="258" width="7.8984375" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:71" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:71" ht="32.1" customHeight="1">
       <c r="A1" s="14"/>
       <c r="B1" s="54" t="s">
         <v>290</v>
@@ -9331,7 +9530,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="2" spans="1:71" ht="63.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:71" ht="63.95" customHeight="1">
       <c r="A2" s="19" t="s">
         <v>217</v>
       </c>
@@ -9438,7 +9637,7 @@
       <c r="BR2" s="27"/>
       <c r="BS2" s="27"/>
     </row>
-    <row r="3" spans="1:71" ht="87.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:71" ht="87.95" customHeight="1">
       <c r="A3" s="19" t="s">
         <v>225</v>
       </c>
@@ -9533,7 +9732,7 @@
       <c r="BR3" s="27"/>
       <c r="BS3" s="27"/>
     </row>
-    <row r="4" spans="1:71" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:71" ht="30" customHeight="1">
       <c r="A4" s="31" t="s">
         <v>231</v>
       </c>
@@ -9620,7 +9819,7 @@
       <c r="BR4" s="27"/>
       <c r="BS4" s="27"/>
     </row>
-    <row r="5" spans="1:71" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:71" ht="30" customHeight="1">
       <c r="A5" s="31" t="s">
         <v>235</v>
       </c>
@@ -9705,7 +9904,7 @@
       <c r="BR5" s="27"/>
       <c r="BS5" s="27"/>
     </row>
-    <row r="6" spans="1:71" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:71" ht="30" customHeight="1">
       <c r="A6" s="31" t="s">
         <v>236</v>
       </c>
@@ -9790,7 +9989,7 @@
       <c r="BR6" s="27"/>
       <c r="BS6" s="27"/>
     </row>
-    <row r="7" spans="1:71" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:71" ht="30" customHeight="1">
       <c r="A7" s="31" t="s">
         <v>237</v>
       </c>
@@ -9879,7 +10078,7 @@
       <c r="BR7" s="27"/>
       <c r="BS7" s="27"/>
     </row>
-    <row r="8" spans="1:71" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:71" ht="30" customHeight="1">
       <c r="A8" s="31" t="s">
         <v>241</v>
       </c>
@@ -9964,7 +10163,7 @@
       <c r="BR8" s="27"/>
       <c r="BS8" s="27"/>
     </row>
-    <row r="9" spans="1:71" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:71" ht="30" customHeight="1">
       <c r="A9" s="31" t="s">
         <v>243</v>
       </c>
@@ -10047,7 +10246,7 @@
       <c r="BR9" s="27"/>
       <c r="BS9" s="27"/>
     </row>
-    <row r="10" spans="1:71" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:71" ht="30" customHeight="1">
       <c r="A10" s="31" t="s">
         <v>244</v>
       </c>
@@ -10130,7 +10329,7 @@
       <c r="BR10" s="27"/>
       <c r="BS10" s="27"/>
     </row>
-    <row r="11" spans="1:71" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:71" ht="30" customHeight="1">
       <c r="A11" s="31" t="s">
         <v>245</v>
       </c>
@@ -10213,7 +10412,7 @@
       <c r="BR11" s="27"/>
       <c r="BS11" s="27"/>
     </row>
-    <row r="12" spans="1:71" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:71" ht="30" customHeight="1">
       <c r="A12" s="31" t="s">
         <v>246</v>
       </c>
@@ -10296,12 +10495,16 @@
       <c r="BR12" s="27"/>
       <c r="BS12" s="27"/>
     </row>
-    <row r="13" spans="1:71" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:71" ht="30" customHeight="1">
       <c r="A13" s="31" t="s">
         <v>247</v>
       </c>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
+      <c r="B13" s="53">
+        <v>6</v>
+      </c>
+      <c r="C13" s="53">
+        <v>13</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="23"/>
       <c r="F13" s="37" t="s">
@@ -10377,12 +10580,16 @@
       <c r="BR13" s="27"/>
       <c r="BS13" s="27"/>
     </row>
-    <row r="14" spans="1:71" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:71" ht="30" customHeight="1">
       <c r="A14" s="31" t="s">
         <v>249</v>
       </c>
-      <c r="B14" s="53"/>
-      <c r="C14" s="53"/>
+      <c r="B14" s="53">
+        <v>6</v>
+      </c>
+      <c r="C14" s="53">
+        <v>14</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="23"/>
       <c r="F14" s="38" t="s">
@@ -10460,12 +10667,16 @@
       <c r="BR14" s="27"/>
       <c r="BS14" s="27"/>
     </row>
-    <row r="15" spans="1:71" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:71" ht="30" customHeight="1">
       <c r="A15" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="B15" s="53"/>
-      <c r="C15" s="53"/>
+      <c r="B15" s="53">
+        <v>6</v>
+      </c>
+      <c r="C15" s="53">
+        <v>15</v>
+      </c>
       <c r="D15" s="20"/>
       <c r="E15" s="23"/>
       <c r="F15" s="40"/>
@@ -10539,7 +10750,7 @@
       <c r="BR15" s="27"/>
       <c r="BS15" s="27"/>
     </row>
-    <row r="16" spans="1:71" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:71" ht="30" customHeight="1">
       <c r="A16" s="31" t="s">
         <v>251</v>
       </c>
@@ -10634,7 +10845,7 @@
       <c r="BR16" s="27"/>
       <c r="BS16" s="27"/>
     </row>
-    <row r="17" spans="1:71" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:71" ht="30" customHeight="1">
       <c r="A17" s="31" t="s">
         <v>257</v>
       </c>
@@ -10719,7 +10930,7 @@
       <c r="BR17" s="27"/>
       <c r="BS17" s="27"/>
     </row>
-    <row r="18" spans="1:71" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:71" ht="30" customHeight="1">
       <c r="A18" s="19" t="s">
         <v>258</v>
       </c>
@@ -10814,7 +11025,7 @@
       <c r="BR18" s="27"/>
       <c r="BS18" s="27"/>
     </row>
-    <row r="19" spans="1:71" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:71" ht="30" customHeight="1">
       <c r="A19" s="19" t="s">
         <v>262</v>
       </c>
@@ -10901,7 +11112,7 @@
       <c r="BR19" s="27"/>
       <c r="BS19" s="27"/>
     </row>
-    <row r="20" spans="1:71" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:71" ht="30" customHeight="1">
       <c r="A20" s="31" t="s">
         <v>266</v>
       </c>
@@ -10990,7 +11201,7 @@
       <c r="BR20" s="27"/>
       <c r="BS20" s="27"/>
     </row>
-    <row r="21" spans="1:71" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:71" ht="30" customHeight="1">
       <c r="A21" s="31" t="s">
         <v>271</v>
       </c>
@@ -11077,7 +11288,7 @@
       <c r="BR21" s="27"/>
       <c r="BS21" s="27"/>
     </row>
-    <row r="22" spans="1:71" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:71" ht="30" customHeight="1">
       <c r="A22" s="31" t="s">
         <v>276</v>
       </c>
@@ -11168,7 +11379,7 @@
       <c r="BR22" s="27"/>
       <c r="BS22" s="27"/>
     </row>
-    <row r="23" spans="1:71" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:71" ht="30" customHeight="1">
       <c r="A23" s="31" t="s">
         <v>283</v>
       </c>
@@ -11249,7 +11460,7 @@
       <c r="BR23" s="27"/>
       <c r="BS23" s="27"/>
     </row>
-    <row r="24" spans="1:71" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:71" ht="30" customHeight="1">
       <c r="A24" s="31" t="s">
         <v>56</v>
       </c>
@@ -11342,7 +11553,7 @@
       <c r="BR24" s="27"/>
       <c r="BS24" s="27"/>
     </row>
-    <row r="25" spans="1:71" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:71" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="51"/>
       <c r="B25" s="50"/>
       <c r="C25" s="50"/>
@@ -11415,7 +11626,7 @@
       <c r="BR25" s="27"/>
       <c r="BS25" s="27"/>
     </row>
-    <row r="26" spans="1:71" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:71" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="27"/>
       <c r="B26" s="27"/>
       <c r="C26" s="27"/>
@@ -11488,7 +11699,7 @@
       <c r="BR26" s="27"/>
       <c r="BS26" s="27"/>
     </row>
-    <row r="27" spans="1:71" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:71" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="27"/>
       <c r="B27" s="27"/>
       <c r="C27" s="27"/>
@@ -11561,7 +11772,7 @@
       <c r="BR27" s="27"/>
       <c r="BS27" s="27"/>
     </row>
-    <row r="28" spans="1:71" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:71" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="33"/>
       <c r="B28" s="33"/>
       <c r="C28" s="33"/>
@@ -11634,7 +11845,7 @@
       <c r="BR28" s="27"/>
       <c r="BS28" s="27"/>
     </row>
-    <row r="29" spans="1:71" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:71" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="27"/>
       <c r="B29" s="27"/>
       <c r="C29" s="27"/>
@@ -11707,7 +11918,7 @@
       <c r="BR29" s="27"/>
       <c r="BS29" s="27"/>
     </row>
-    <row r="30" spans="1:71" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:71" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="17">
         <v>3</v>
       </c>

--- a/网站类目填写内容 .xlsx
+++ b/网站类目填写内容 .xlsx
@@ -160,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="295">
   <si>
     <t>房地产类别</t>
   </si>
@@ -4505,21 +4505,125 @@
     <t>租金</t>
   </si>
   <si>
-    <r>
-      <rPr>
+    <t>房屋租凭(求租)</t>
+  </si>
+  <si>
+    <t>期望租金</t>
+  </si>
+  <si>
+    <t>期望厅室</t>
+  </si>
+  <si>
+    <t>宠物服务</t>
+  </si>
+  <si>
+    <t>交易地址</t>
+  </si>
+  <si>
+    <t>宠物图</t>
+  </si>
+  <si>
+    <t>品种</t>
+  </si>
+  <si>
+    <t>性别</t>
+  </si>
+  <si>
+    <t>招聘求职（招聘）</t>
+  </si>
+  <si>
+    <t>公司名称</t>
+  </si>
+  <si>
+    <t>公司简介</t>
+  </si>
+  <si>
+    <t>招聘求职（求职）</t>
+  </si>
+  <si>
+    <t>期望职位</t>
+  </si>
+  <si>
+    <t>期望薪资</t>
+  </si>
+  <si>
+    <t>期望工作地点</t>
+  </si>
+  <si>
+    <t>个人介绍</t>
+  </si>
+  <si>
+    <t>现居住地</t>
+  </si>
+  <si>
+    <t>商务服务</t>
+  </si>
+  <si>
+    <t>交易地点</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>图片</t>
+  </si>
+  <si>
+    <t>品牌</t>
+  </si>
+  <si>
+    <t>型号</t>
+  </si>
+  <si>
+    <t>新旧程度</t>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ype_id</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_nm</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>小区</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>小区</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+        <rFont val="Aharoni"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="10"/>
         <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>商圈</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
         <rFont val="Aharoni"/>
       </rPr>
       <t>/</t>
@@ -4532,133 +4636,40 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>商圈</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Aharoni"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
       <t>地址</t>
     </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>求租地段</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>房间内、大门、外部环境</t>
-  </si>
-  <si>
-    <t>房屋租凭(求租)</t>
-  </si>
-  <si>
-    <t>期望租金</t>
-  </si>
-  <si>
-    <t>求租地段</t>
-  </si>
-  <si>
-    <t>期望厅室</t>
-  </si>
-  <si>
-    <t>宠物服务</t>
-  </si>
-  <si>
-    <t>交易地址</t>
-  </si>
-  <si>
-    <t>宠物图</t>
-  </si>
-  <si>
-    <t>品种</t>
-  </si>
-  <si>
-    <t>性别</t>
-  </si>
-  <si>
-    <t>招聘求职（招聘）</t>
-  </si>
-  <si>
-    <t>公司名称</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑面积</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>期望面积</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>薪资</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>公司地址</t>
-  </si>
-  <si>
-    <t>公司简介</t>
-  </si>
-  <si>
-    <t>招聘求职（求职）</t>
-  </si>
-  <si>
-    <t>期望职位</t>
-  </si>
-  <si>
-    <t>期望薪资</t>
-  </si>
-  <si>
-    <t>期望工作地点</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>个人姓名</t>
-  </si>
-  <si>
-    <t>个人介绍</t>
-  </si>
-  <si>
-    <t>现居住地</t>
-  </si>
-  <si>
-    <t>商务服务</t>
-  </si>
-  <si>
-    <t>交易地点</t>
-  </si>
-  <si>
-    <t>描述</t>
-  </si>
-  <si>
-    <t>图片</t>
-  </si>
-  <si>
-    <t>品牌</t>
-  </si>
-  <si>
-    <t>型号</t>
-  </si>
-  <si>
-    <t>新旧程度</t>
-  </si>
-  <si>
-    <r>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ype_id</t>
-    </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>view_nm</t>
+    <t>服务范围</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4972,7 +4983,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -5146,6 +5157,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9302,15 +9316,18 @@
   <dimension ref="A1:IX30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.8984375" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="13.59765625" style="13" customWidth="1"/>
     <col min="2" max="3" width="13.3984375" style="13" customWidth="1"/>
-    <col min="4" max="15" width="7.5" style="13" customWidth="1"/>
+    <col min="4" max="4" width="7.5" style="13" customWidth="1"/>
+    <col min="5" max="5" width="9.09765625" style="13" customWidth="1"/>
+    <col min="6" max="6" width="10.8984375" style="13" customWidth="1"/>
+    <col min="7" max="15" width="7.5" style="13" customWidth="1"/>
     <col min="16" max="16" width="14.09765625" style="13" customWidth="1"/>
     <col min="17" max="38" width="7.5" style="13" customWidth="1"/>
     <col min="39" max="46" width="13.59765625" style="13" customWidth="1"/>
@@ -9320,10 +9337,10 @@
     <row r="1" spans="1:71" ht="32.1" customHeight="1">
       <c r="A1" s="14"/>
       <c r="B1" s="54" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C1" s="54" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>149</v>
@@ -10675,7 +10692,7 @@
         <v>6</v>
       </c>
       <c r="C15" s="53">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D15" s="20"/>
       <c r="E15" s="23"/>
@@ -10754,8 +10771,12 @@
       <c r="A16" s="31" t="s">
         <v>251</v>
       </c>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
+      <c r="B16" s="53">
+        <v>7</v>
+      </c>
+      <c r="C16" s="53">
+        <v>15</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="23"/>
       <c r="F16" s="38" t="s">
@@ -10849,8 +10870,12 @@
       <c r="A17" s="31" t="s">
         <v>257</v>
       </c>
-      <c r="B17" s="53"/>
-      <c r="C17" s="53"/>
+      <c r="B17" s="53">
+        <v>8</v>
+      </c>
+      <c r="C17" s="53">
+        <v>15</v>
+      </c>
       <c r="D17" s="20"/>
       <c r="E17" s="34" t="s">
         <v>226</v>
@@ -10934,14 +10959,18 @@
       <c r="A18" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="B18" s="52"/>
-      <c r="C18" s="52"/>
+      <c r="B18" s="52">
+        <v>9</v>
+      </c>
+      <c r="C18" s="52">
+        <v>16</v>
+      </c>
       <c r="D18" s="20"/>
       <c r="E18" s="42" t="s">
         <v>259</v>
       </c>
       <c r="F18" s="43" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="G18" s="23"/>
       <c r="H18" s="23"/>
@@ -10950,7 +10979,7 @@
         <v>220</v>
       </c>
       <c r="K18" s="26" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="L18" s="27"/>
       <c r="M18" s="16" t="s">
@@ -10960,7 +10989,7 @@
         <v>159</v>
       </c>
       <c r="O18" s="16" t="s">
-        <v>229</v>
+        <v>289</v>
       </c>
       <c r="P18" s="27"/>
       <c r="Q18" s="27"/>
@@ -11027,16 +11056,20 @@
     </row>
     <row r="19" spans="1:71" ht="30" customHeight="1">
       <c r="A19" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="B19" s="52"/>
-      <c r="C19" s="52"/>
+        <v>260</v>
+      </c>
+      <c r="B19" s="52">
+        <v>10</v>
+      </c>
+      <c r="C19" s="52">
+        <v>16</v>
+      </c>
       <c r="D19" s="20"/>
       <c r="E19" s="28" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F19" s="43" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -11050,9 +11083,11 @@
         <v>158</v>
       </c>
       <c r="N19" s="16" t="s">
-        <v>265</v>
-      </c>
-      <c r="O19" s="27"/>
+        <v>262</v>
+      </c>
+      <c r="O19" s="58" t="s">
+        <v>290</v>
+      </c>
       <c r="P19" s="27"/>
       <c r="Q19" s="27"/>
       <c r="R19" s="27"/>
@@ -11114,14 +11149,18 @@
     </row>
     <row r="20" spans="1:71" ht="30" customHeight="1">
       <c r="A20" s="31" t="s">
-        <v>266</v>
-      </c>
-      <c r="B20" s="53"/>
-      <c r="C20" s="53"/>
+        <v>263</v>
+      </c>
+      <c r="B20" s="53">
+        <v>11</v>
+      </c>
+      <c r="C20" s="53">
+        <v>17</v>
+      </c>
       <c r="D20" s="20"/>
       <c r="E20" s="23"/>
       <c r="F20" s="44" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G20" s="23"/>
       <c r="H20" s="23"/>
@@ -11130,7 +11169,7 @@
         <v>232</v>
       </c>
       <c r="K20" s="16" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L20" s="16" t="s">
         <v>157</v>
@@ -11144,10 +11183,10 @@
       <c r="S20" s="27"/>
       <c r="T20" s="27"/>
       <c r="U20" s="16" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="V20" s="16" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="W20" s="27"/>
       <c r="X20" s="27"/>
@@ -11203,24 +11242,28 @@
     </row>
     <row r="21" spans="1:71" ht="30" customHeight="1">
       <c r="A21" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="B21" s="53"/>
-      <c r="C21" s="53"/>
+        <v>268</v>
+      </c>
+      <c r="B21" s="53">
+        <v>12</v>
+      </c>
+      <c r="C21" s="53">
+        <v>18</v>
+      </c>
       <c r="D21" s="45" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E21" s="35" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="F21" s="34" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="G21" s="23"/>
       <c r="H21" s="23"/>
       <c r="I21" s="23"/>
       <c r="J21" s="28" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="K21" s="46"/>
       <c r="L21" s="16" t="s">
@@ -11290,28 +11333,32 @@
     </row>
     <row r="22" spans="1:71" ht="30" customHeight="1">
       <c r="A22" s="31" t="s">
-        <v>276</v>
-      </c>
-      <c r="B22" s="53"/>
-      <c r="C22" s="53"/>
+        <v>271</v>
+      </c>
+      <c r="B22" s="53">
+        <v>13</v>
+      </c>
+      <c r="C22" s="53">
+        <v>18</v>
+      </c>
       <c r="D22" s="47" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="E22" s="48" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="F22" s="48" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="G22" s="48" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="H22" s="48" t="s">
         <v>153</v>
       </c>
       <c r="I22" s="23"/>
       <c r="J22" s="48" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="K22" s="49"/>
       <c r="L22" s="41"/>
@@ -11324,7 +11371,7 @@
       <c r="S22" s="27"/>
       <c r="T22" s="27"/>
       <c r="U22" s="16" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="V22" s="27"/>
       <c r="W22" s="27"/>
@@ -11381,14 +11428,18 @@
     </row>
     <row r="23" spans="1:71" ht="30" customHeight="1">
       <c r="A23" s="31" t="s">
-        <v>283</v>
-      </c>
-      <c r="B23" s="53"/>
-      <c r="C23" s="53"/>
+        <v>277</v>
+      </c>
+      <c r="B23" s="53">
+        <v>14</v>
+      </c>
+      <c r="C23" s="53">
+        <v>19</v>
+      </c>
       <c r="D23" s="20"/>
       <c r="E23" s="23"/>
       <c r="F23" s="37" t="s">
-        <v>248</v>
+        <v>294</v>
       </c>
       <c r="G23" s="23"/>
       <c r="H23" s="23"/>
@@ -11464,21 +11515,25 @@
       <c r="A24" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="53"/>
-      <c r="C24" s="53"/>
+      <c r="B24" s="53">
+        <v>15</v>
+      </c>
+      <c r="C24" s="53">
+        <v>176</v>
+      </c>
       <c r="D24" s="20"/>
       <c r="E24" s="23"/>
       <c r="F24" s="38" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="G24" s="23"/>
       <c r="H24" s="23"/>
       <c r="I24" s="23"/>
       <c r="J24" s="21" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="K24" s="16" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="L24" s="16" t="s">
         <v>157</v>
@@ -11494,13 +11549,13 @@
       <c r="S24" s="27"/>
       <c r="T24" s="27"/>
       <c r="U24" s="16" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="V24" s="16" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="W24" s="16" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="X24" s="27"/>
       <c r="Y24" s="27"/>
